--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\timeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F928539-3135-4A98-9E27-148C2B35CB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7778A7-5B6D-492B-A44B-228065248D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25110" yWindow="6105" windowWidth="23445" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="timeList" sheetId="1" r:id="rId1"/>
+    <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="347">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -1337,6 +1338,31 @@
   </si>
   <si>
     <t>儀式</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16:56</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1597,10 +1623,10 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1885,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="I152" sqref="I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1914,11 +1940,11 @@
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>341</v>
       </c>
       <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="29" t="s">
         <v>340</v>
       </c>
@@ -6660,9 +6686,15 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
+      <c r="G163" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J163" s="2" t="s">
         <v>35</v>
       </c>
@@ -6882,4 +6914,34 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F17878B-0F69-416E-917B-30392D8A220D}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\timeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3A1C18-4E4B-4B9F-9E32-D14FD4DC2D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C33D9F-518A-4B55-BFF4-F28A561FAEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25800" yWindow="4575" windowWidth="23445" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27315" yWindow="4815" windowWidth="23445" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeList" sheetId="1" r:id="rId1"/>
-    <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="321">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -85,9 +84,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>渡門 / 海岸兵舎</t>
-  </si>
-  <si>
     <t>土門客棧 / 海岸</t>
   </si>
   <si>
@@ -199,9 +195,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>渡門 / 悪鬼都市</t>
-  </si>
-  <si>
     <t>土門客棧 / 鬼都</t>
   </si>
   <si>
@@ -229,10 +222,6 @@
     <t>萬年殭屍</t>
   </si>
   <si>
-    <t>08:15</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
@@ -272,10 +261,6 @@
     <t>04</t>
   </si>
   <si>
-    <t>03:32</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
@@ -342,13 +327,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>19:36</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>渡門 / 戒狼村</t>
-  </si>
-  <si>
     <t>土門客棧 / 灰狼村</t>
   </si>
   <si>
@@ -394,10 +372,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>11:57</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>09:56</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -446,9 +420,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>悲鳴 / 悪鬼都市</t>
-  </si>
-  <si>
     <t>悲鳴村 / 鬼都</t>
   </si>
   <si>
@@ -502,9 +473,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>黒影林 / 悲鳴</t>
-  </si>
-  <si>
     <t>黑森林 / 悲鳴村</t>
   </si>
   <si>
@@ -528,9 +496,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>戒狼村 / 悲鳴</t>
-  </si>
-  <si>
     <t>灰狼村 / 悲鳴村</t>
   </si>
   <si>
@@ -584,9 +549,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>巨岩の海岸 / 悲鳴</t>
-  </si>
-  <si>
     <t>巨岩海岸 / 悲鳴村</t>
   </si>
   <si>
@@ -690,9 +652,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>孤独の村 / 渡門</t>
-  </si>
-  <si>
     <t>孤村 / 土門客棧</t>
   </si>
   <si>
@@ -744,9 +703,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>悲鳴 / 海岸兵舎</t>
-  </si>
-  <si>
     <t>悲鳴村 / 海岸</t>
   </si>
   <si>
@@ -774,9 +730,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>渡門 / 悲鳴</t>
-  </si>
-  <si>
     <t>土門客棧 / 悲鳴村</t>
   </si>
   <si>
@@ -862,10 +815,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>19:30</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>18:03</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -882,10 +831,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>15:22</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>13:29</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -899,10 +844,6 @@
   </si>
   <si>
     <t>12:11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12:28</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1010,10 +951,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>17:33</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>16:05</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1042,10 +979,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>11:38</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>10:16</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1070,10 +1003,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>07:10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>05:57</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1090,10 +1019,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>02:??</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>海岸兵舎 / 悪鬼都市</t>
   </si>
   <si>
@@ -1121,9 +1046,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>孤独の村 / 悲鳴</t>
-  </si>
-  <si>
     <t>孤村 / 悲鳴村</t>
   </si>
   <si>
@@ -1174,10 +1096,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>10:10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>10:17</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1186,17 +1104,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>08:40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>07:49</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>巨岩の海岸 / 渡門</t>
-  </si>
-  <si>
     <t>巨岩海岸 / 土門客棧</t>
   </si>
   <si>
@@ -1208,10 +1119,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>04:15</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>03:55</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1220,9 +1127,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>黒影林 / 渡門</t>
-  </si>
-  <si>
     <t>黑森林 / 土門客棧</t>
   </si>
   <si>
@@ -1249,29 +1153,6 @@
     <t>shirao-time</t>
   </si>
   <si>
-    <t>mitsuki-jp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>mitsuki-zh</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>mitsuki-time</t>
-  </si>
-  <si>
-    <t>ishiki-jp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ishiki-zh</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ishiki-time</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Week-zh</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1288,23 +1169,66 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>16:56</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>comment</t>
+    <t>渡門旅館 / 海岸兵舎</t>
+  </si>
+  <si>
+    <t>黒影林 / 渡門旅館</t>
+  </si>
+  <si>
+    <t>巨岩の海岸 / 渡門旅館</t>
+  </si>
+  <si>
+    <t>渡門旅館 / 悪鬼都市</t>
+  </si>
+  <si>
+    <t>渡門旅館 / 戒狼村</t>
+  </si>
+  <si>
+    <t>孤独の村 / 渡門旅館</t>
+  </si>
+  <si>
+    <t>孤独の村 / 武運村</t>
+  </si>
+  <si>
+    <t>黒影林 / 武運村</t>
+  </si>
+  <si>
+    <t>武運村 / 悪鬼都市</t>
+  </si>
+  <si>
+    <t>渡門旅館 / 武運村</t>
+  </si>
+  <si>
+    <t>武運村 / 海岸兵舎</t>
+  </si>
+  <si>
+    <t>巨岩の海岸 / 武運村</t>
+  </si>
+  <si>
+    <t>戒狼村 / 武運村</t>
+  </si>
+  <si>
+    <t>mizuki-time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mizuki-zh</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mizuki-jp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gishiki-time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gishiki-zh</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gishiki-jp</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1312,7 +1236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1355,8 +1279,28 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1414,6 +1358,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,7 +1426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1560,6 +1510,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1853,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1874,46 +1863,46 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="27" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>1</v>
@@ -1922,27 +1911,27 @@
         <v>0</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>1</v>
@@ -1951,36 +1940,42 @@
         <v>0</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+        <v>303</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="H4" s="23" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>9</v>
@@ -1989,79 +1984,79 @@
         <v>8</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>58</v>
+      <c r="E5" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>58</v>
+      <c r="E6" s="33">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="23" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>14</v>
@@ -2070,56 +2065,56 @@
         <v>13</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="E9" s="33">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>36</v>
       </c>
+      <c r="G9" s="34" t="s">
+        <v>35</v>
+      </c>
       <c r="H9" s="23" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>9</v>
@@ -2128,35 +2123,35 @@
         <v>8</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="E10" s="33">
+        <v>0.36736111111111114</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>23</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -2165,42 +2160,42 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="F12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="F12" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="34" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>9</v>
@@ -2209,18 +2204,18 @@
         <v>8</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>1</v>
@@ -2232,12 +2227,12 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -2246,33 +2241,33 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>1</v>
@@ -2281,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>14</v>
@@ -2290,35 +2285,35 @@
         <v>13</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="33">
+        <v>0.60972222222222228</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="34" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -2327,7 +2322,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>14</v>
@@ -2336,41 +2331,47 @@
         <v>13</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="H18" s="25"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>1</v>
@@ -2379,21 +2380,21 @@
         <v>0</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2402,44 +2403,50 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+        <v>165</v>
+      </c>
+      <c r="E21" s="30">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="H21" s="25"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -2448,7 +2455,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="23" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="I22" s="22" t="s">
         <v>9</v>
@@ -2457,27 +2464,27 @@
         <v>8</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="E23" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>23</v>
       </c>
+      <c r="G23" s="32" t="s">
+        <v>22</v>
+      </c>
       <c r="H23" s="23" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>9</v>
@@ -2491,25 +2498,25 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="22"/>
@@ -2520,13 +2527,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="23" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>1</v>
@@ -2538,10 +2545,10 @@
         <v>2</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K25" s="24" t="s">
         <v>7</v>
@@ -2549,7 +2556,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -2558,7 +2565,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="20" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>14</v>
@@ -2567,56 +2574,62 @@
         <v>13</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="E27" s="35">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="H27" s="20" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>283</v>
+        <v>263</v>
+      </c>
+      <c r="E28" s="36">
+        <v>0.11319444444444444</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>14</v>
@@ -2625,12 +2638,12 @@
         <v>13</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -2642,18 +2655,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="20" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>1</v>
@@ -2662,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>9</v>
@@ -2671,24 +2684,24 @@
         <v>8</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>1</v>
@@ -2697,21 +2710,21 @@
         <v>0</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -2723,47 +2736,47 @@
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="20" t="s">
-        <v>278</v>
+      <c r="E33" s="36">
+        <v>0.29722222222222222</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K33" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="20" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>1</v>
@@ -2772,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>14</v>
@@ -2781,21 +2794,21 @@
         <v>13</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>274</v>
-      </c>
       <c r="C35" s="19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -2804,27 +2817,27 @@
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="20" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>9</v>
@@ -2833,27 +2846,27 @@
         <v>8</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="20" t="s">
-        <v>271</v>
+      <c r="E37" s="36">
+        <v>0.48333333333333334</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>14</v>
@@ -2862,21 +2875,21 @@
         <v>13</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
@@ -2885,27 +2898,27 @@
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
       <c r="K38" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="20" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="I39" s="19" t="s">
         <v>9</v>
@@ -2914,18 +2927,18 @@
         <v>8</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>1</v>
@@ -2934,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>9</v>
@@ -2943,12 +2956,12 @@
         <v>8</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -2957,65 +2970,65 @@
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="20" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>34</v>
+        <v>305</v>
+      </c>
+      <c r="E42" s="36">
+        <v>0.67638888888888893</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
       <c r="K42" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="20" t="s">
-        <v>263</v>
+      <c r="E43" s="36">
+        <v>0.7319444444444444</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>9</v>
@@ -3024,21 +3037,21 @@
         <v>8</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
@@ -3047,27 +3060,27 @@
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
       <c r="K44" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="20" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="I45" s="19" t="s">
         <v>9</v>
@@ -3076,18 +3089,18 @@
         <v>8</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="20" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>1</v>
@@ -3096,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="I46" s="19" t="s">
         <v>14</v>
@@ -3105,27 +3118,27 @@
         <v>13</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
       <c r="H47" s="20" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="I47" s="19" t="s">
         <v>14</v>
@@ -3139,19 +3152,19 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="20" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="19"/>
@@ -3162,22 +3175,22 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I49" s="19" t="s">
         <v>14</v>
@@ -3191,7 +3204,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -3200,7 +3213,7 @@
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I50" s="15" t="s">
         <v>9</v>
@@ -3209,24 +3222,24 @@
         <v>8</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>1</v>
@@ -3235,44 +3248,44 @@
         <v>0</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="17" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
       <c r="K52" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -3281,7 +3294,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="17" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>9</v>
@@ -3290,27 +3303,27 @@
         <v>8</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="17" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="I54" s="15" t="s">
         <v>9</v>
@@ -3319,24 +3332,24 @@
         <v>8</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>1</v>
@@ -3348,216 +3361,222 @@
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
       <c r="K55" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>242</v>
+        <v>206</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J56" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>242</v>
+        <v>206</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J57" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>242</v>
+        <v>206</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J58" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15" t="s">
-        <v>241</v>
+        <v>206</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="15" t="s">
-        <v>241</v>
+      <c r="F59" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
-      <c r="I59" s="15" t="s">
-        <v>241</v>
+      <c r="I59" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15" t="s">
-        <v>241</v>
+        <v>206</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="15" t="s">
-        <v>241</v>
+      <c r="F60" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="17" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
+      <c r="E61" s="37">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
       <c r="K61" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
-      <c r="E62" s="17" t="s">
-        <v>239</v>
+      <c r="E62" s="18">
+        <v>0.5131944444444444</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>236</v>
-      </c>
       <c r="F63" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="I63" s="15" t="s">
         <v>14</v>
@@ -3566,12 +3585,12 @@
         <v>13</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -3580,7 +3599,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
       <c r="H64" s="17" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I64" s="15" t="s">
         <v>14</v>
@@ -3589,18 +3608,18 @@
         <v>13</v>
       </c>
       <c r="K64" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
-      <c r="E65" s="17" t="s">
-        <v>234</v>
+      <c r="E65" s="18">
+        <v>0.63958333333333328</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>1</v>
@@ -3612,33 +3631,33 @@
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
       <c r="K65" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="I66" s="15" t="s">
         <v>9</v>
@@ -3647,12 +3666,12 @@
         <v>8</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="15"/>
@@ -3664,21 +3683,27 @@
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
       <c r="K67" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
+      <c r="E68" s="37">
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="H68" s="17" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="I68" s="15" t="s">
         <v>14</v>
@@ -3687,27 +3712,27 @@
         <v>13</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
-      <c r="E69" s="17" t="s">
-        <v>229</v>
+      <c r="E69" s="18">
+        <v>0.82152777777777775</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="I69" s="15" t="s">
         <v>9</v>
@@ -3716,21 +3741,21 @@
         <v>8</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
@@ -3739,27 +3764,27 @@
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="17" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="I71" s="15" t="s">
         <v>14</v>
@@ -3773,13 +3798,13 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="17" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>1</v>
@@ -3788,13 +3813,13 @@
         <v>0</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K72" s="16" t="s">
         <v>11</v>
@@ -3802,7 +3827,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="15" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -3819,28 +3844,28 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>14</v>
@@ -3849,41 +3874,41 @@
         <v>13</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="13" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3895,27 +3920,27 @@
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
       <c r="K76" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="13" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>9</v>
@@ -3924,33 +3949,33 @@
         <v>8</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>9</v>
@@ -3959,12 +3984,12 @@
         <v>8</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3973,7 +3998,7 @@
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="13" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="I79" s="12" t="s">
         <v>9</v>
@@ -3982,56 +4007,56 @@
         <v>8</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="13" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H80" s="14"/>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
       <c r="K80" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I81" s="12" t="s">
         <v>9</v>
@@ -4040,12 +4065,12 @@
         <v>8</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4054,7 +4079,7 @@
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="13" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="I82" s="12" t="s">
         <v>9</v>
@@ -4063,79 +4088,79 @@
         <v>8</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="13" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H83" s="14"/>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
       <c r="K83" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
       <c r="E84" s="13" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>198</v>
+        <v>312</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="13" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I85" s="12" t="s">
         <v>14</v>
@@ -4144,35 +4169,35 @@
         <v>13</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="13" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86" s="14"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4181,160 +4206,160 @@
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="13" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="13" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H89" s="14"/>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
       <c r="K89" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B90" s="13" t="s">
-        <v>191</v>
-      </c>
       <c r="C90" s="12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="13" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K90" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
       <c r="E91" s="13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92" s="14"/>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4343,7 +4368,7 @@
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="13" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I93" s="12" t="s">
         <v>14</v>
@@ -4352,33 +4377,33 @@
         <v>13</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>184</v>
+        <v>307</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I94" s="12" t="s">
         <v>14</v>
@@ -4387,18 +4412,18 @@
         <v>13</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="13" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>1</v>
@@ -4407,13 +4432,13 @@
         <v>0</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>12</v>
@@ -4421,7 +4446,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -4438,34 +4463,34 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K97" s="14" t="s">
         <v>7</v>
@@ -4473,22 +4498,22 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>9</v>
@@ -4497,41 +4522,41 @@
         <v>8</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="10" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -4543,62 +4568,62 @@
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="10" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>14</v>
@@ -4607,12 +4632,12 @@
         <v>13</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -4624,47 +4649,47 @@
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -4673,7 +4698,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="10" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>14</v>
@@ -4682,56 +4707,56 @@
         <v>13</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="10" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>9</v>
@@ -4740,27 +4765,27 @@
         <v>8</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>9</v>
@@ -4769,35 +4794,35 @@
         <v>8</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -4806,7 +4831,7 @@
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
       <c r="H110" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I110" s="9" t="s">
         <v>9</v>
@@ -4815,24 +4840,24 @@
         <v>8</v>
       </c>
       <c r="K110" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>1</v>
@@ -4841,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I111" s="9" t="s">
         <v>14</v>
@@ -4850,18 +4875,18 @@
         <v>13</v>
       </c>
       <c r="K111" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>1</v>
@@ -4870,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>9</v>
@@ -4879,12 +4904,12 @@
         <v>8</v>
       </c>
       <c r="K112" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -4896,24 +4921,24 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>141</v>
+        <v>314</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>1</v>
@@ -4922,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I114" s="9" t="s">
         <v>9</v>
@@ -4931,12 +4956,12 @@
         <v>8</v>
       </c>
       <c r="K114" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -4945,7 +4970,7 @@
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="10" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I115" s="9" t="s">
         <v>14</v>
@@ -4954,56 +4979,56 @@
         <v>13</v>
       </c>
       <c r="K115" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="10" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H117" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="I117" s="9" t="s">
         <v>14</v>
@@ -5012,12 +5037,12 @@
         <v>13</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -5026,33 +5051,33 @@
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
@@ -5063,28 +5088,28 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I120" s="9" t="s">
         <v>14</v>
@@ -5098,7 +5123,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -5107,13 +5132,13 @@
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K121" s="11" t="s">
         <v>7</v>
@@ -5121,13 +5146,13 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>1</v>
@@ -5136,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>14</v>
@@ -5145,110 +5170,128 @@
         <v>13</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
+        <v>310</v>
+      </c>
+      <c r="E123" s="38">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H123" s="7"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
+      <c r="E124" s="38">
+        <v>0.12291666666666666</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="H124" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
+      <c r="E125" s="38"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="E126" s="38">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H126" s="7"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>1</v>
@@ -5257,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>9</v>
@@ -5266,12 +5309,12 @@
         <v>8</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5280,7 +5323,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>9</v>
@@ -5289,18 +5332,18 @@
         <v>8</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
-      <c r="E129" s="6" t="s">
-        <v>111</v>
+      <c r="E129" s="8">
+        <v>0.30069444444444443</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>1</v>
@@ -5312,27 +5355,33 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="E130" s="38">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H130" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I130" s="5" t="s">
         <v>14</v>
@@ -5341,12 +5390,12 @@
         <v>13</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -5355,7 +5404,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>9</v>
@@ -5364,44 +5413,50 @@
         <v>8</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
+      <c r="E132" s="38">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="H132" s="7"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
-      <c r="E133" s="6" t="s">
-        <v>105</v>
+      <c r="E133" s="8">
+        <v>0.49444444444444446</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I133" s="5" t="s">
         <v>14</v>
@@ -5410,27 +5465,27 @@
         <v>13</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>9</v>
@@ -5439,104 +5494,122 @@
         <v>8</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
+      <c r="E135" s="38">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H135" s="7"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
+      <c r="E136" s="38">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="H136" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>58</v>
+        <v>29</v>
+      </c>
+      <c r="E137" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F137" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G137" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
+      <c r="E138" s="38">
+        <v>0.6875</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="H138" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -5545,7 +5618,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I139" s="5" t="s">
         <v>9</v>
@@ -5554,50 +5627,56 @@
         <v>8</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
+      <c r="E140" s="38">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>91</v>
+        <v>306</v>
+      </c>
+      <c r="E141" s="8">
+        <v>0.81180555555555556</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>9</v>
@@ -5606,12 +5685,12 @@
         <v>8</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -5620,33 +5699,33 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
@@ -5657,22 +5736,28 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
+        <v>305</v>
+      </c>
+      <c r="E144" s="38">
+        <v>0.93888888888888888</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="H144" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I144" s="5" t="s">
         <v>14</v>
@@ -5686,7 +5771,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -5695,7 +5780,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I145" s="5" t="s">
         <v>9</v>
@@ -5714,8 +5799,8 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="2" t="s">
-        <v>82</v>
+      <c r="E146" s="3">
+        <v>3.1944444444444442E-2</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>1</v>
@@ -5727,7 +5812,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5741,16 +5826,16 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5758,16 +5843,16 @@
         <v>6</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>1</v>
@@ -5776,16 +5861,16 @@
         <v>0</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5795,20 +5880,20 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="2" t="s">
-        <v>72</v>
+      <c r="E149" s="3">
+        <v>0.14444444444444443</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H149" s="4"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5822,16 +5907,16 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5842,16 +5927,16 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>14</v>
@@ -5860,7 +5945,7 @@
         <v>13</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5868,7 +5953,7 @@
         <v>6</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>4</v>
@@ -5876,20 +5961,20 @@
       <c r="D152" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>64</v>
+      <c r="E152" s="3">
+        <v>0.27638888888888891</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H152" s="4"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5903,7 +5988,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>9</v>
@@ -5912,7 +5997,7 @@
         <v>8</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5922,17 +6007,17 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="2" t="s">
-        <v>60</v>
+      <c r="E154" s="3">
+        <v>0.34236111111111112</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>9</v>
@@ -5941,7 +6026,7 @@
         <v>8</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5952,19 +6037,19 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H155" s="4"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5972,19 +6057,19 @@
         <v>6</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>51</v>
+        <v>305</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>9</v>
@@ -5993,7 +6078,7 @@
         <v>8</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -6003,11 +6088,17 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+      <c r="E157" s="41">
+        <v>0.46875</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H157" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>14</v>
@@ -6016,7 +6107,7 @@
         <v>13</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -6026,14 +6117,20 @@
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="E158" s="41">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H158" s="4"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -6047,16 +6144,16 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6064,28 +6161,34 @@
         <v>6</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E160" s="41">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K160" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6096,19 +6199,19 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161" s="4"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6118,17 +6221,17 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="2" t="s">
-        <v>335</v>
+      <c r="E162" s="3">
+        <v>0.70625000000000004</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>9</v>
@@ -6137,7 +6240,7 @@
         <v>8</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6145,28 +6248,28 @@
         <v>6</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6177,19 +6280,19 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6203,7 +6306,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>9</v>
@@ -6212,7 +6315,7 @@
         <v>8</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6220,13 +6323,13 @@
         <v>6</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>16</v>
@@ -6247,7 +6350,7 @@
         <v>13</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6257,9 +6360,15 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
+      <c r="E167" s="41">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -6321,21 +6430,21 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="28"/>
-      <c r="B170" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
-      <c r="E170" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="F170" s="29"/>
-      <c r="G170" s="31"/>
-      <c r="H170" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="I170" s="29"/>
-      <c r="J170" s="29"/>
+      <c r="B170" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C170" s="42"/>
+      <c r="D170" s="42"/>
+      <c r="E170" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="F170" s="42"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="I170" s="42"/>
+      <c r="J170" s="42"/>
       <c r="K170" s="28"/>
     </row>
   </sheetData>
@@ -6347,37 +6456,4 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F17878B-0F69-416E-917B-30392D8A220D}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>339</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>